--- a/temp/Fee refund Account Details.xlsx
+++ b/temp/Fee refund Account Details.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426F078D-B918-FE45-AA0E-8CEC6290AD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12320" yWindow="4780" windowWidth="30580" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Bank Account Details</t>
   </si>
@@ -41,12 +42,33 @@
   </si>
   <si>
     <t xml:space="preserve">Swift Code: </t>
+  </si>
+  <si>
+    <t>Kashif Jamal Ahmed</t>
+  </si>
+  <si>
+    <t>Emirates NBD</t>
+  </si>
+  <si>
+    <t>Ibn Batutta Mall, Dubai</t>
+  </si>
+  <si>
+    <t>AE96 0260 0002 1580 6638 701</t>
+  </si>
+  <si>
+    <t>02 1580 6638 701</t>
+  </si>
+  <si>
+    <t>EBILAEAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -221,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,61 +526,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -567,16 +604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
